--- a/data/trans_dic/P20B-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P20B-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_dic/P20B-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P20B-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -661,57 +661,57 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>38,58%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>67,18%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>45,55%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>43,83%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>51,86%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,27%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,17%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>43,83%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>47,33%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>47,86%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>38,6%</t>
         </is>
       </c>
     </row>
@@ -729,57 +729,57 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 17,08</t>
+          <t>9,92; 69,49</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 17,08</t>
+          <t>33,2; 92,15</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 11,15</t>
+          <t>17,37; 73,52</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 15,69</t>
+          <t>16,13; 74,33</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 11,83</t>
+          <t>24,94; 73,72</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 20,75</t>
+          <t>0,0; 58,12</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 14,51</t>
+          <t>2,28; 60,04</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 15,69</t>
+          <t>16,13; 74,33</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 7,32</t>
+          <t>27,64; 65,56</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 9,99</t>
+          <t>26,37; 71,98</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 6,57</t>
+          <t>20,11; 60,56</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,65%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,2%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>43,4%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,61%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,81%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,68%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,67%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,91%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,87%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,93%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>36,32%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,58%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 9,99</t>
+          <t>11,49; 56,07</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 5,61</t>
+          <t>16,42; 46,92</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 7,32</t>
+          <t>25,19; 64,91</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 4,34</t>
+          <t>18,06; 49,66</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 5,16</t>
+          <t>7,59; 31,36</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 3,48</t>
+          <t>8,7; 28,62</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 5,3</t>
+          <t>17,34; 51,13</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,95</t>
+          <t>15,76; 42,01</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 3,48</t>
+          <t>12,36; 34,49</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,18</t>
+          <t>14,86; 33,74</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 3,14</t>
+          <t>24,96; 49,74</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,77</t>
+          <t>20,57; 40,15</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,89%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,73%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,85%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,86%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,5%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,73%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,19%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,74%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,95%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,95%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,67%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,46%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 5,03</t>
+          <t>10,06; 37,39</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,3</t>
+          <t>15,19; 37,98</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 4,34</t>
+          <t>14,82; 42,05</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,54</t>
+          <t>15,79; 40,84</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,7</t>
+          <t>7,14; 24,34</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,18</t>
+          <t>18,52; 37,71</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,66</t>
+          <t>11,16; 31,04</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,06</t>
+          <t>13,64; 36,2</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,77</t>
+          <t>9,91; 23,82</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,32</t>
+          <t>20,02; 35,09</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,67</t>
+          <t>15,63; 32,33</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,31</t>
+          <t>15,89; 33,33</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,47%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,61%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,25%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>39,54%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,05%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,94%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,1%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,86%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,44%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,07%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,51%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,01%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 5,3</t>
+          <t>10,75; 39,81</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 4,66</t>
+          <t>19,76; 50,55</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 6,57</t>
+          <t>18,31; 56,55</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 4,9</t>
+          <t>23,92; 57,73</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,14</t>
+          <t>19,12; 42,36</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 2,77</t>
+          <t>13,9; 33,96</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,68</t>
+          <t>14,14; 38,13</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,04</t>
+          <t>9,83; 29,57</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 2,0</t>
+          <t>17,59; 36,23</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,76</t>
+          <t>18,77; 35,62</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 2,39</t>
+          <t>18,48; 39,62</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,9</t>
+          <t>18,6; 38,6</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,41%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,41%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,07%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,0%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,8%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,0%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,63%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,79%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,95%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,41%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,47%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,88%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 4,16</t>
+          <t>18,65; 44,89</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 3,61</t>
+          <t>16,64; 40,86</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 3,9</t>
+          <t>16,99; 42,37</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,42</t>
+          <t>23,05; 44,69</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,95</t>
+          <t>10,11; 30,07</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,18</t>
+          <t>13,99; 31,19</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,31</t>
+          <t>15,15; 35,01</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,67</t>
+          <t>16,65; 32,37</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,74</t>
+          <t>15,93; 32,09</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,37</t>
+          <t>17,95; 32,83</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,46</t>
+          <t>18,3; 34,05</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,99</t>
+          <t>21,8; 34,65</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,24%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,72%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,7%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,21%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,2%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,59%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,36%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,73%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,32%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,56%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,87%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,48%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,41</t>
+          <t>19,75; 33,9</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,99</t>
+          <t>23,42; 37,28</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,24</t>
+          <t>26,65; 42,15</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,84</t>
+          <t>26,58; 39,38</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,79</t>
+          <t>15,55; 25,58</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,62</t>
+          <t>20,11; 29,77</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,77</t>
+          <t>19,59; 30,26</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,56</t>
+          <t>17,87; 28,71</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,51</t>
+          <t>18,4; 26,81</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>23,22; 30,67</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,48</t>
+          <t>23,57; 32,47</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>23,77; 31,45</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P20B-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P20B-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,65%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>38,58%</t>
+          <t>32,6%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>67,18%</t>
+          <t>50,62%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>45,55%</t>
+          <t>36,07%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>43,83%</t>
+          <t>23,54%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>51,86%</t>
+          <t>25,28%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>21,27%</t>
+          <t>29,88%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>27,17%</t>
+          <t>27,37%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>43,83%</t>
+          <t>26,25%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>47,33%</t>
+          <t>28,05%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>47,86%</t>
+          <t>38,97%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>38,6%</t>
+          <t>31,83%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,49; 56,07</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>9,92; 69,49</t>
+          <t>20,89; 48,29</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>33,2; 92,15</t>
+          <t>33,45; 66,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>17,37; 73,52</t>
+          <t>23,76; 50,71</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>16,13; 74,33</t>
+          <t>13,11; 38,47</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>24,94; 73,72</t>
+          <t>16,34; 36,67</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 58,12</t>
+          <t>17,25; 45,16</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,28; 60,04</t>
+          <t>17,03; 40,85</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>16,13; 74,33</t>
+          <t>17,07; 37,44</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>27,64; 65,56</t>
+          <t>20,15; 36,0</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>26,37; 71,98</t>
+          <t>28,03; 49,86</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>20,11; 60,56</t>
+          <t>23,73; 43,23</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>33,65%</t>
+          <t>20,89%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>31,2%</t>
+          <t>25,73%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>43,4%</t>
+          <t>26,85%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>32,61%</t>
+          <t>25,87%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>17,81%</t>
+          <t>13,5%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>17,68%</t>
+          <t>27,73%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>31,67%</t>
+          <t>20,19%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>26,91%</t>
+          <t>21,85%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>22,87%</t>
+          <t>15,95%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>22,93%</t>
+          <t>26,95%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>36,32%</t>
+          <t>22,67%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>29,58%</t>
+          <t>23,57%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>11,49; 56,07</t>
+          <t>10,06; 37,39</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>16,42; 46,92</t>
+          <t>15,19; 37,98</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>25,19; 64,91</t>
+          <t>14,82; 42,05</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>18,06; 49,66</t>
+          <t>16,0; 41,67</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,59; 31,36</t>
+          <t>7,14; 24,34</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,7; 28,62</t>
+          <t>18,52; 37,71</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>17,34; 51,13</t>
+          <t>11,16; 31,04</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>15,76; 42,01</t>
+          <t>13,93; 36,28</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>12,36; 34,49</t>
+          <t>9,91; 23,82</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>14,86; 33,74</t>
+          <t>20,02; 35,09</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>24,96; 49,74</t>
+          <t>15,63; 32,33</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>20,57; 40,15</t>
+          <t>16,11; 33,4</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>20,89%</t>
+          <t>22,47%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>25,73%</t>
+          <t>33,61%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>26,85%</t>
+          <t>34,25%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>25,86%</t>
+          <t>40,11%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>13,5%</t>
+          <t>29,05%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>27,73%</t>
+          <t>22,94%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>20,19%</t>
+          <t>25,1%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>21,74%</t>
+          <t>17,96%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>15,95%</t>
+          <t>26,44%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>26,95%</t>
+          <t>27,07%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>22,67%</t>
+          <t>28,51%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>23,46%</t>
+          <t>28,52%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>10,06; 37,39</t>
+          <t>10,75; 39,81</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>15,19; 37,98</t>
+          <t>19,76; 50,55</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>14,82; 42,05</t>
+          <t>18,31; 56,55</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>15,79; 40,84</t>
+          <t>24,48; 58,21</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,14; 24,34</t>
+          <t>19,12; 42,36</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>18,52; 37,71</t>
+          <t>13,9; 33,96</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>11,16; 31,04</t>
+          <t>14,14; 38,13</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>13,64; 36,2</t>
+          <t>9,88; 29,29</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>9,91; 23,82</t>
+          <t>17,59; 36,23</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>20,02; 35,09</t>
+          <t>18,77; 35,62</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>15,63; 32,33</t>
+          <t>18,48; 39,62</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>15,89; 33,33</t>
+          <t>18,84; 38,86</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>22,47%</t>
+          <t>31,41%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>33,61%</t>
+          <t>28,41%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>34,25%</t>
+          <t>27,07%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>39,54%</t>
+          <t>32,55%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>29,05%</t>
+          <t>17,8%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>22,94%</t>
+          <t>22,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>25,1%</t>
+          <t>24,63%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>17,86%</t>
+          <t>24,12%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>26,44%</t>
+          <t>22,95%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>27,07%</t>
+          <t>24,41%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>28,51%</t>
+          <t>25,47%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>28,01%</t>
+          <t>27,96%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>10,75; 39,81</t>
+          <t>18,65; 44,89</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>19,76; 50,55</t>
+          <t>16,64; 40,86</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>18,31; 56,55</t>
+          <t>16,99; 42,37</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>23,92; 57,73</t>
+          <t>22,59; 44,06</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>19,12; 42,36</t>
+          <t>10,11; 30,07</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>13,9; 33,96</t>
+          <t>13,99; 31,19</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>14,14; 38,13</t>
+          <t>15,15; 35,01</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>9,83; 29,57</t>
+          <t>16,79; 32,64</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>17,59; 36,23</t>
+          <t>15,93; 32,09</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>18,77; 35,62</t>
+          <t>17,95; 32,83</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>18,48; 39,62</t>
+          <t>18,3; 34,05</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>18,6; 38,6</t>
+          <t>21,98; 34,85</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>31,41%</t>
+          <t>26,24%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>28,41%</t>
+          <t>29,72%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>27,07%</t>
+          <t>33,7%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>33,0%</t>
+          <t>33,12%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>17,8%</t>
+          <t>20,2%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>22,0%</t>
+          <t>24,59%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>24,63%</t>
+          <t>24,36%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>23,79%</t>
+          <t>22,99%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>22,95%</t>
+          <t>22,32%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>24,41%</t>
+          <t>26,56%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>25,47%</t>
+          <t>27,87%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>27,88%</t>
+          <t>27,69%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>18,65; 44,89</t>
+          <t>19,75; 33,9</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>16,64; 40,86</t>
+          <t>23,42; 37,28</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>16,99; 42,37</t>
+          <t>26,65; 42,15</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>23,05; 44,69</t>
+          <t>26,42; 39,33</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>10,11; 30,07</t>
+          <t>15,55; 25,58</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>13,99; 31,19</t>
+          <t>20,11; 29,77</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>15,15; 35,01</t>
+          <t>19,59; 30,26</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>16,65; 32,37</t>
+          <t>18,07; 28,68</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>15,93; 32,09</t>
+          <t>18,4; 26,81</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>17,95; 32,83</t>
+          <t>23,22; 30,67</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>18,3; 34,05</t>
+          <t>23,57; 32,47</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>21,8; 34,65</t>
+          <t>23,86; 31,59</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>26,24%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>29,72%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>33,7%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>33,21%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>20,2%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>24,59%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>24,36%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>22,73%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>22,32%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>26,56%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>27,87%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>27,48%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>19,75; 33,9</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>23,42; 37,28</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>26,65; 42,15</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>26,58; 39,38</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>15,55; 25,58</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>20,11; 29,77</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>19,59; 30,26</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>17,87; 28,71</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>18,4; 26,81</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>23,22; 30,67</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>23,57; 32,47</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>23,77; 31,45</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P20B-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P20B-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>11,49; 56,07</t>
+          <t>16,13; 56,3</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>20,89; 48,29</t>
+          <t>18,59; 47,47</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>33,45; 66,0</t>
+          <t>35,38; 66,95</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>23,76; 50,71</t>
+          <t>23,57; 51,18</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>13,11; 38,47</t>
+          <t>13,19; 37,47</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>16,34; 36,67</t>
+          <t>16,26; 37,02</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>17,25; 45,16</t>
+          <t>17,14; 44,74</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>17,03; 40,85</t>
+          <t>17,42; 40,17</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>17,07; 37,44</t>
+          <t>16,76; 36,95</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>20,15; 36,0</t>
+          <t>20,34; 36,64</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>28,03; 49,86</t>
+          <t>28,3; 49,67</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>23,73; 43,23</t>
+          <t>23,02; 41,76</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>10,06; 37,39</t>
+          <t>10,39; 36,45</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>15,19; 37,98</t>
+          <t>15,37; 38,28</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>14,82; 42,05</t>
+          <t>15,39; 41,46</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>16,0; 41,67</t>
+          <t>13,95; 39,79</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,14; 24,34</t>
+          <t>6,71; 22,11</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>18,52; 37,71</t>
+          <t>18,36; 37,77</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>11,16; 31,04</t>
+          <t>12,21; 31,23</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>13,93; 36,28</t>
+          <t>12,58; 34,2</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>9,91; 23,82</t>
+          <t>9,87; 23,82</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>20,02; 35,09</t>
+          <t>19,87; 35,39</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>15,63; 32,33</t>
+          <t>15,23; 31,05</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>16,11; 33,4</t>
+          <t>16,12; 32,76</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>10,75; 39,81</t>
+          <t>10,4; 39,62</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>19,76; 50,55</t>
+          <t>20,71; 52,33</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>18,31; 56,55</t>
+          <t>18,07; 54,4</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>24,48; 58,21</t>
+          <t>23,28; 55,98</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>19,12; 42,36</t>
+          <t>19,45; 42,13</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>13,9; 33,96</t>
+          <t>13,9; 34,83</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>14,14; 38,13</t>
+          <t>14,17; 38,56</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>9,88; 29,29</t>
+          <t>9,84; 30,52</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>17,59; 36,23</t>
+          <t>18,93; 36,71</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>18,77; 35,62</t>
+          <t>19,57; 37,85</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>18,48; 39,62</t>
+          <t>19,27; 38,56</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>18,84; 38,86</t>
+          <t>19,26; 39,85</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>18,65; 44,89</t>
+          <t>18,57; 46,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>16,64; 40,86</t>
+          <t>16,66; 42,27</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>16,99; 42,37</t>
+          <t>16,32; 42,22</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>22,59; 44,06</t>
+          <t>22,75; 43,39</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>10,11; 30,07</t>
+          <t>9,3; 29,94</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>13,99; 31,19</t>
+          <t>13,46; 30,31</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>15,15; 35,01</t>
+          <t>15,38; 35,48</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>16,79; 32,64</t>
+          <t>16,89; 33,54</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>15,93; 32,09</t>
+          <t>15,56; 30,34</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>17,95; 32,83</t>
+          <t>17,6; 32,22</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>18,3; 34,05</t>
+          <t>18,7; 34,68</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>21,98; 34,85</t>
+          <t>21,54; 35,33</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>19,75; 33,9</t>
+          <t>18,86; 34,1</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>23,42; 37,28</t>
+          <t>23,14; 37,79</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>26,65; 42,15</t>
+          <t>26,16; 40,84</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>26,42; 39,33</t>
+          <t>26,4; 39,67</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>15,55; 25,58</t>
+          <t>15,68; 25,34</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>20,11; 29,77</t>
+          <t>19,77; 29,43</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>19,59; 30,26</t>
+          <t>19,18; 29,62</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>18,07; 28,68</t>
+          <t>18,29; 27,91</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>18,4; 26,81</t>
+          <t>18,3; 26,69</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>23,22; 30,67</t>
+          <t>23,13; 30,62</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>23,57; 32,47</t>
+          <t>23,44; 32,62</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>23,86; 31,59</t>
+          <t>23,49; 31,91</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que estuvo en lista de espera por ingreso hospitalario</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>5807</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>14794</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>18235</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>15997</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>11096</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>18827</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>13786</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>11551</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>16904</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>33622</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>32021</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>27548</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>2784; 9716</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>8437; 21547</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>12746; 24117</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>10454; 22700</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>6220; 17665</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>12110; 27574</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>7910; 20643</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>7352; 16951</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>10795; 23799</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>24388; 43920</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>23253; 40816</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>19926; 36146</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>7787</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>15842</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>12267</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>12287</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>10167</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>26710</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>15544</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>13841</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>17954</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>42552</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>27811</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>26128</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>3872; 13588</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>9466; 23571</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>7031; 18937</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>6623; 18895</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>5051; 16654</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>17688; 36383</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>9406; 24046</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>7972; 21667</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>11109; 26815</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>31380; 55882</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>18684; 38090</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>17872; 36316</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>8509</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>16038</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>11369</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>14195</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>16745</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>17308</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>14019</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>6975</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>25254</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>33345</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>25388</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>21169</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>3939; 15001</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>9881; 24969</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>5998; 18058</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>8238; 19810</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>11212; 24283</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>10491; 26280</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>7913; 21534</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>3821; 11850</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>18082; 35054</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>24100; 46620</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>17159; 34329</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>14294; 29573</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>13059</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>15080</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>12881</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>19798</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>12150</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>19418</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>22298</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>17477</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>25209</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>34498</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>35178</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>37275</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>7721; 19124</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>8843; 22442</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>7764; 20089</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>13837; 26394</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>6348; 20443</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>11876; 26750</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>13926; 32123</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>12237; 24303</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>17091; 33326</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>24878; 45539</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>25825; 47900</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>28710; 47093</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>35163</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>61754</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>54751</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>62276</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>50158</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>82264</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>65647</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>49843</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>85321</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>144017</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>120398</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>112120</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>25274; 45688</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>48081; 78523</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>42502; 66360</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>49639; 74594</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>38941; 62932</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>66124; 98443</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>51703; 79847</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>39667; 60527</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>69951; 102057</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>125411; 166042</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>101246; 140920</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>95101; 129204</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>